--- a/data/trans_orig/ProbViv_estruc-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{449C752B-B395-4570-94CA-EF5FC9CF6A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F60930E7-EF9C-4846-B384-7DD203713D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A898D11-5505-4AB6-A200-674BAB5814E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{70BDE903-DAAD-4003-998A-8F183F6B1B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,10 +74,10 @@
     <t>15,59%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
   </si>
   <si>
     <t>7,24%</t>
@@ -86,16 +86,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,07%</t>
+    <t>24,73%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,16 +104,16 @@
     <t>84,41%</t>
   </si>
   <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>92,76%</t>
   </si>
   <si>
-    <t>77,93%</t>
+    <t>75,27%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -122,184 +122,184 @@
     <t>89,16%</t>
   </si>
   <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>90,71%</t>
   </si>
   <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>6,85%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>93,15%</t>
   </si>
   <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>91,2%</t>
   </si>
   <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>89,69%</t>
   </si>
   <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>90,19%</t>
   </si>
   <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>12,57%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>88,4%</t>
   </si>
   <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>90,05%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
   </si>
   <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>90,0%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A859249F-C9FF-457B-B13A-0C0A4F7B831C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDCF003-24B4-4E10-880C-51DFD1603E1A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/ProbViv_estruc-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F60930E7-EF9C-4846-B384-7DD203713D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{108D5567-52C0-4E6D-941E-86CCBF426CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{70BDE903-DAAD-4003-998A-8F183F6B1B8C}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{79FFFFAB-F40A-473E-86B3-CB17A43E0CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Hogares según si tienen problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>86,7%</t>
   </si>
   <si>
-    <t>92,74%</t>
+    <t>93,57%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDCF003-24B4-4E10-880C-51DFD1603E1A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4543F784-099B-4F79-9634-3680D49EB206}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>1979</v>
+        <v>14049</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>1216</v>
+        <v>8440</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>3195</v>
+        <v>22489</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="D5" s="7">
-        <v>10719</v>
+        <v>103231</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="I5" s="7">
-        <v>15571</v>
+        <v>131972</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="N5" s="7">
-        <v>26290</v>
+        <v>235204</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>6337</v>
+        <v>12550</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>13952</v>
+        <v>25219</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>20289</v>
+        <v>37768</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="D8" s="7">
-        <v>108259</v>
+        <v>176963</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>148</v>
+        <v>310</v>
       </c>
       <c r="I8" s="7">
-        <v>89943</v>
+        <v>229816</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>290</v>
+        <v>565</v>
       </c>
       <c r="N8" s="7">
-        <v>198201</v>
+        <v>406780</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>189513</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>622</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>444548</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>25745</v>
+        <v>18218</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>13098</v>
+        <v>17249</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>38844</v>
+        <v>35467</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>310</v>
+        <v>204</v>
       </c>
       <c r="D11" s="7">
-        <v>224441</v>
+        <v>172183</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="I11" s="7">
-        <v>178236</v>
+        <v>168037</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>565</v>
+        <v>407</v>
       </c>
       <c r="N11" s="7">
-        <v>402676</v>
+        <v>340220</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>190401</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>191334</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>622</v>
+        <v>452</v>
       </c>
       <c r="N12" s="7">
-        <v>441520</v>
+        <v>375687</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>16141</v>
+        <v>19988</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>17397</v>
+        <v>22422</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N13" s="7">
-        <v>33537</v>
+        <v>42410</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D14" s="7">
-        <v>157067</v>
+        <v>147974</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I14" s="7">
-        <v>151338</v>
+        <v>157873</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="N14" s="7">
-        <v>308406</v>
+        <v>305847</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="I15" s="7">
-        <v>168735</v>
+        <v>180295</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="N15" s="7">
-        <v>341943</v>
+        <v>348257</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>21893</v>
+        <v>64805</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>99</v>
+      </c>
+      <c r="I16" s="7">
+        <v>73329</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>25</v>
-      </c>
-      <c r="I16" s="7">
-        <v>19942</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>193</v>
+      </c>
+      <c r="N16" s="7">
+        <v>138135</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>56</v>
-      </c>
-      <c r="N16" s="7">
-        <v>41835</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>206</v>
+        <v>848</v>
       </c>
       <c r="D17" s="7">
-        <v>152221</v>
+        <v>600351</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>877</v>
+      </c>
+      <c r="I17" s="7">
+        <v>687699</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>215</v>
-      </c>
-      <c r="I17" s="7">
-        <v>152001</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1725</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1288049</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>421</v>
-      </c>
-      <c r="N17" s="7">
-        <v>304222</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>237</v>
+        <v>942</v>
       </c>
       <c r="D18" s="7">
-        <v>174114</v>
+        <v>665156</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>976</v>
       </c>
       <c r="I18" s="7">
-        <v>171943</v>
+        <v>761028</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>477</v>
+        <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>346057</v>
+        <v>1426184</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>99</v>
-      </c>
-      <c r="D19" s="7">
-        <v>72095</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>94</v>
-      </c>
-      <c r="I19" s="7">
-        <v>65605</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>193</v>
-      </c>
-      <c r="N19" s="7">
-        <v>137700</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>877</v>
-      </c>
-      <c r="D20" s="7">
-        <v>652707</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>848</v>
-      </c>
-      <c r="I20" s="7">
-        <v>587088</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1725</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1239795</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>976</v>
-      </c>
-      <c r="D21" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>942</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652693</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1377495</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
